--- a/Javascript/ETH_web3_infura_etherscan.io_API.xlsx
+++ b/Javascript/ETH_web3_infura_etherscan.io_API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13000" tabRatio="500"/>
+    <workbookView windowWidth="28000" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="3" r:id="rId1"/>
@@ -14,9 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
-  <si>
-    <t>Web3j:依赖web3j等jar</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+  <si>
+    <t>Web3j:依赖web3j等jar
+https://infura.io/register申请token，可以先不申请，直接访问https://rinkeby.infura.io（主网地址），项目中目前直接写的主网地址所以可以直接运行不用申请访问</t>
   </si>
   <si>
     <t>功能</t>
@@ -31,26 +32,15 @@
     <t>1. 创建钱包元数据</t>
   </si>
   <si>
-    <t>/**
+    <t xml:space="preserve">/**
   * 创建钱包
   * 
-  * @param password
-  *            密码
-  * @param walletFilePath
-  *            钱包路径
-  * @param useFullScrypt
-  *            是否轻量级钱包
+  * @param String password 密码
+  * @param File  walletFilePath 存放钱包文件夹路径
+  * @param Boolean  useFullScrypt 是否轻量级钱包
   */
- public Object creatWallet(String password, String walletFilePath, Boolean useFullScrypt) {
-  String walletFileName = "";
-  try {//返回创建钱包的文件名
-   walletFileName = WalletUtils.generateNewWalletFile(password, new File(walletFilePath), false);
-  } catch (Exception exception) {
-   // TODO Auto-generated catch block
-   exception.printStackTrace();
-  }
-  return walletFileName;
- }</t>
+   String  walletFileName = WalletUtils.generateNewWalletFile(password, new File(walletFilePath), false);
+</t>
   </si>
   <si>
     <t xml:space="preserve"> 文件内容：     
@@ -77,34 +67,25 @@
 }</t>
   </si>
   <si>
-    <t>2. 根据元数据解析钱包</t>
+    <t>2. 根据元数据Keystore解析钱包</t>
   </si>
   <si>
     <t xml:space="preserve">/**
   * 加载钱包文件
   * 
-  * @param password
-  *            钱包密码
-  * @param walleFilePath
-  *            钱包路径
-  * @throws Exception
+  * @param String password 钱包密码
+  * @param  File walleFilePath 钱包文件路径
   */
- public Object loadWallet(String password, String walleFilePath) {
-  String address = "";
-  try {
    Credentials credentials = WalletUtils.loadCredentials(password, walleFilePath);
-   address = credentials.getAddress();
-  } catch (Exception exception) {
-   exception.printStackTrace();
-  }
-  return address;
- }
 </t>
   </si>
   <si>
-    <t>返回Credentials对象，根据该对象可获取address=0xe4d869165c4251f4b65c891774131072ed1a2af8
-public key=34566505121258...
-private key=101233875…</t>
+    <t xml:space="preserve">返回Credentials对象，根据该对象可获取
+钱包地址，公钥和私钥
+  String address = credentials.getAddress();
+  BigInteger publicKey = credentials.getEcKeyPair().getPublicKey();
+  BigInteger privateKey = credentials.getEcKeyPair().getPrivateKey();
+</t>
   </si>
   <si>
     <t>3. 连接Eth客户端</t>
@@ -121,7 +102,14 @@
     <t>4. 获取余额</t>
   </si>
   <si>
-    <t xml:space="preserve">web3j.ethGetBalance(address, DefaultBlockParameterName.LATEST).send();
+    <t xml:space="preserve">/**
+  * 获取钱包余额
+  * 
+  * @param String address 钱包地址
+  * @param  DefaultBlockParameter defaultBlockParameter(有三个参数可选
+                                       EARLIEST，LATEST，PENDING)
+  */
+web3j.ethGetBalance(address, DefaultBlockParameterName.LATEST).send();
 </t>
   </si>
   <si>
@@ -169,37 +157,22 @@
     <t>6. 交易</t>
   </si>
   <si>
-    <t>/**
+    <t xml:space="preserve">/**
   * 发送交易
   * 
-  * @param web3j
-  *            Web3j
-  * @param walleFilePath
-  *            钱包地址
-  * @param password
-  *            钱包密码
-  * @param address_to
-  *            发送交易的地址
-  * @param value
-  *            发送交易的币数目
-  * @param unit
-  *            发送交易的币单位
-  * @throws Exception
+  * @param  Web3j  web3j对象
+  * @param String walleFilePath  钱包地址
+  * @param String password 钱包密码
+  * @param String address_to 发送交易的地址
+  * @param String value   发送交易的币数目
+  * @param  Unit unit 发送交易的币单位
   */
- public Object transTo(Web3j web3j, String walleFilePath, String password, String address_to, String value,
-   Unit unit) throws Exception {
   Credentials credentials = WalletUtils.loadCredentials(password, walleFilePath);
-  if (web3j == null) {
-   return null;
-  }
-  if (credentials == null) {
-   return null;
-  }
   // 开始发送交易到指定地址
   TransactionReceipt send = Transfer.sendFunds(web3j, credentials, address_to, new BigDecimal(value), unit)
     .send();
   return send.getTransactionHash();
- }</t>
+ </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -219,18 +192,125 @@
   <si>
     <t>返回：EthTransaction 对象</t>
   </si>
+  <si>
+    <t xml:space="preserve">           8获取燃料价格</t>
+  </si>
+  <si>
+    <t>web3j.ethGasPrice().send().getGasPrice()</t>
+  </si>
+  <si>
+    <t>Gas Price是时刻变化的，目前项目中，是系统根据Gas Price和Gas Limit计算。 
+Gas Limit一般为21000 (可自定义Gas Price和Gas Limit) 
+手续费 = Gas Price * Gas Limit</t>
+  </si>
+  <si>
+    <t>以上为项目中用到的，在EthController中有可以自定义矿工费用的发送交易的方法，以上代码发送交易是采用默认的矿工费用，下面两个是可以自定义的发送交易的方法
+如0x55a2217015ef6b6b14d1e88a567fee6c31803c9bba0e50ea507f0e124de6705e为自定义的矿工费用交易。可进入https://etherscan.io查看</t>
+  </si>
+  <si>
+    <t>9自定义矿工费用（不使用签名）</t>
+  </si>
+  <si>
+    <t>/**
+  * （可自定义矿工费用）不带签名
+  * @param web3j  Web3j对象
+  * @param credentials  Credentials对象       
+  * @param GAS_PRICE 自定义的燃料费用    
+  * @param GAS_LIMIT 自定义燃料最高限制
+  * @param toAddress 接受交易者钱包地址 
+  * @param value  发送交易ether金额
+  * @return String TxHash 交易号
+  */
+ public static Object transTo2(Web3j web3j, Credentials credentials, BigInteger GAS_PRICE, BigInteger GAS_LIMIT,
+   String toAddress, BigDecimal value) {
+  TransactionManager transactionManager = new RawTransactionManager(web3j, credentials);
+  Transfer transfer = new Transfer(web3j, transactionManager);
+  TransactionReceipt send = null;
+  try {
+   send = transfer.sendFunds(toAddress, value, Convert.Unit.ETHER, GAS_PRICE, GAS_LIMIT).send();
+  } catch (Exception exception) {
+   exception.printStackTrace();
+  }
+  return send.getTransactionHash();
+ }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以用TransactionReceipt 获取以下信息
+  System.out.println("Transaction complete:");
+  System.out.println("trans hash=" + send.getTransactionHash());
+  System.out.println("from :" + send.getFrom());
+  System.out.println("to:" + send.getTo());
+  System.out.println("gas used=" + send.getGasUsed());
+  System.out.println("status: " + send.getStatus());
+</t>
+  </si>
+  <si>
+    <t>10自定义矿工费用（使用签名）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/**
+  * （可自定义矿工费用）带签名的交易
+  * @param web3j  Web3j对象  
+  * @param credentials  Credentials对象    
+  * @param GAS_PRICE 自定义的燃料费用
+  * @param GAS_LIMIT 自定义燃料最高限制
+  * @param fromAddress 发送交易者钱包地址
+  * @param toAddress 接受交易者钱包地址
+  * @param value 发送交易ether金额
+  * @return String TxHash 交易号
+  */
+ public static Object transTo3(Web3j web3j, Credentials credentials, BigInteger GAS_PRICE, BigInteger GAS_LIMIT,
+   String fromAddress, String toAddress, String value) {
+  // getNonce
+  EthGetTransactionCount ethGetTransactionCount = null;
+  try {
+   ethGetTransactionCount = web3j.ethGetTransactionCount(fromAddress, DefaultBlockParameterName.LATEST)
+     .sendAsync().get();
+  } catch (Exception exception) {
+   exception.printStackTrace();
+  }
+  BigInteger nonce = ethGetTransactionCount.getTransactionCount();
+  // 创建交易
+  BigInteger value_BigInteger = Convert.toWei(value, Convert.Unit.ETHER).toBigInteger();
+  RawTransaction rawTransaction = RawTransaction.createEtherTransaction(nonce, GAS_PRICE, GAS_LIMIT, toAddress,
+    value_BigInteger);
+  // 签名Transaction，这里要对交易做签名
+  byte[] signedMessage = TransactionEncoder.signMessage(rawTransaction, credentials);
+  String hexValue = Numeric.toHexString(signedMessage);
+  // 发送交易
+  EthSendTransaction ethSendTransaction = null;
+  try {
+   ethSendTransaction = web3j.ethSendRawTransaction(hexValue).sendAsync().get();
+  } catch (Exception exception) {
+   exception.printStackTrace();
+  }
+  String transactionHash = ethSendTransaction.getTransactionHash();
+  return transactionHash;
+ }
+</t>
+  </si>
+  <si>
+    <t>使用签名时发送交易不需要发送方的地址。
+可以使用EthSendTransaction 获取以下信息：如交易的哈希值，错误的编码code以及错误信息
+System.out.println("result=" + ethSendTransaction.getResult());
+System.out.println("TxHash=" + transactionHash);
+if (ethSendTransaction.getError() != null) {
+System.out.println("errorMessage=" + ethSendTransaction.getError().getMessage());
+System.out.println("errorCode=" + ethSendTransaction.getError().getCode());
+  }</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,6 +348,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -277,13 +363,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +376,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -312,6 +406,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -336,20 +437,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,9 +452,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,39 +497,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,31 +531,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,122 +697,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -618,6 +710,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -644,6 +773,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,21 +833,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -730,124 +859,124 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,29 +985,29 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -890,22 +1019,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1226,18 +1370,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:S7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="44" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="16.3888888888889" customWidth="1"/>
+    <col min="10" max="10" width="19.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" customHeight="1" spans="1:10">
+    <row r="1" customFormat="1" ht="226" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1397,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" customFormat="1" ht="29" customHeight="1" spans="1:19">
+    <row r="2" customFormat="1" ht="65" customHeight="1" spans="1:19">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1278,7 +1424,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" customFormat="1" ht="315" customHeight="1" spans="1:19">
+    <row r="3" customFormat="1" ht="409" customHeight="1" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1314,25 +1460,25 @@
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" customFormat="1" ht="160" customHeight="1" spans="1:19">
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+    </row>
+    <row r="5" customFormat="1" ht="179" customHeight="1" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1359,7 +1505,7 @@
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
     </row>
-    <row r="6" customFormat="1" ht="108" customHeight="1" spans="1:19">
+    <row r="6" customFormat="1" ht="188" customHeight="1" spans="1:19">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1368,23 +1514,23 @@
       <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
     </row>
     <row r="7" customFormat="1" ht="409" customHeight="1" spans="1:19">
       <c r="A7" s="8" t="s">
@@ -1413,7 +1559,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" customFormat="1" ht="288" customHeight="1" spans="1:19">
+    <row r="8" customFormat="1" ht="409" customHeight="1" spans="1:19">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1422,23 +1568,23 @@
       <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:19">
       <c r="A9" s="4" t="s">
@@ -1467,8 +1613,247 @@
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
+    <row r="10" ht="201" customHeight="1" spans="1:19">
+      <c r="A10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" ht="100" customHeight="1" spans="1:19">
+      <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="15"/>
+    </row>
+    <row r="12" ht="409" customHeight="1" spans="1:19">
+      <c r="A12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" ht="409" customHeight="1" spans="1:19">
+      <c r="A13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" customHeight="1" spans="4:19">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+    </row>
+    <row r="15" customHeight="1" spans="4:19">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+    </row>
+    <row r="16" customHeight="1" spans="4:19">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+    </row>
+    <row r="17" customHeight="1" spans="4:19">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+    </row>
+    <row r="18" customHeight="1" spans="4:19">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+    </row>
+    <row r="19" customHeight="1" spans="4:19">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+    </row>
+    <row r="20" customHeight="1" spans="13:19">
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+    </row>
+    <row r="21" customHeight="1" spans="13:19">
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+    </row>
+    <row r="22" customHeight="1" spans="13:19">
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="35">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:L2"/>
@@ -1494,6 +1879,16 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:L9"/>
     <mergeCell ref="M9:S9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="A11:S11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:S13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Javascript/ETH_web3_infura_etherscan.io_API.xlsx
+++ b/Javascript/ETH_web3_infura_etherscan.io_API.xlsx
@@ -17,7 +17,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>Web3j:依赖web3j等jar
-https://infura.io/register申请token，可以先不申请，直接访问https://rinkeby.infura.io（主网地址），项目中目前直接写的主网地址所以可以直接运行不用申请访问</t>
+https://infura.io/register申请token，可以先不申请，直接访问https://mainnet.infura.io（主网地址），项目中目前直接写的主网地址所以可以直接运行不用申请访问</t>
   </si>
   <si>
     <t>功能</t>
@@ -29,7 +29,7 @@
     <t>Response Json</t>
   </si>
   <si>
-    <t>1. 创建钱包元数据</t>
+    <t>1. 创建钱包json文件</t>
   </si>
   <si>
     <t xml:space="preserve">/**
@@ -43,7 +43,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 文件内容：     
+    <t xml:space="preserve"> 生成的文件内容：     
 {
     "address":"e4d869165c4251f4b65c891774131072ed1a2af8",
     "id":"f00c3314-8585-4cfe-a426-29e492c3e17b",
@@ -67,13 +67,13 @@
 }</t>
   </si>
   <si>
-    <t>2. 根据元数据Keystore解析钱包</t>
+    <t>2. 根据生成的钱包文件解析钱包</t>
   </si>
   <si>
     <t xml:space="preserve">/**
   * 加载钱包文件
   * 
-  * @param String password 钱包密码
+  * @param String password 创建该钱包时的钱包密码
   * @param  File walleFilePath 钱包文件路径
   */
    Credentials credentials = WalletUtils.loadCredentials(password, walleFilePath);
@@ -91,7 +91,7 @@
     <t>3. 连接Eth客户端</t>
   </si>
   <si>
-    <t xml:space="preserve">  Web3j web3j = Web3j.build(new HttpService("https://rinkeby.infura.io/YourToken"));
+    <t xml:space="preserve">  Web3j web3j = Web3j.build(new HttpService("https://mainnet.infura.io/YourToken"));
 </t>
   </si>
   <si>
@@ -171,7 +171,6 @@
   // 开始发送交易到指定地址
   TransactionReceipt send = Transfer.sendFunds(web3j, credentials, address_to, new BigDecimal(value), unit)
     .send();
-  return send.getTransactionHash();
  </t>
   </si>
   <si>
@@ -184,13 +183,26 @@
   System.out.println("status: " + send.getStatus());</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7. 获取交易状态</t>
-  </si>
-  <si>
-    <t>web3j.ethGetTransactionByHash(transactionHash).send();</t>
-  </si>
-  <si>
-    <t>返回：EthTransaction 对象</t>
+    <t xml:space="preserve"> 7. 获取交易信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+/**
+  * 获取交易状态
+  * @param String transactionHash 交易的哈希值
+  */
+方法一：
+EthTransaction  ethTransaction = web3j.ethGetTransactionByHash( String transactionHash).send();
+方法二：
+EthGetTransactionReceipt ethTransaction2 =  web3j.ethGetTransactionReceipt(String transactionHash).send();</t>
+  </si>
+  <si>
+    <t>相同点：
+1两种方法都可以根据getResult()获取交易的基本信息，都可以根据getError()获取错误详情。
+2对于失败的交易都不能查询到记录
+不同点：
+1但是获取的具体内容还是有区别，比如方法一的getResult()中不能获取status，方法二可以。
+2当发送的交易没有被确认时，方法一可以查询到基本信息，并且blocknumber会为null。但是方法二必须要等交易完成之后才能查询到记录。</t>
   </si>
   <si>
     <t xml:space="preserve">           8获取燃料价格</t>
@@ -205,7 +217,7 @@
   </si>
   <si>
     <t>以上为项目中用到的，在EthController中有可以自定义矿工费用的发送交易的方法，以上代码发送交易是采用默认的矿工费用，下面两个是可以自定义的发送交易的方法
-如0x55a2217015ef6b6b14d1e88a567fee6c31803c9bba0e50ea507f0e124de6705e为自定义的矿工费用交易。可进入https://etherscan.io查看</t>
+如0x55a2217015ef6b6b14d1e88a567fee6c31803c9bba0e50ea507f0e124de6705e为自定义的矿工费用成功交易。可进入https://etherscan.io查看</t>
   </si>
   <si>
     <t>9自定义矿工费用（不使用签名）</t>
@@ -306,9 +318,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -369,10 +381,95 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,45 +482,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,64 +503,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -549,151 +561,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +784,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,21 +826,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,35 +847,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,109 +877,109 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,22 +991,22 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1004,7 +1016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1030,20 +1042,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1372,8 +1387,8 @@
   <sheetPr/>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:S11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="44" customHeight="1"/>
@@ -1433,23 +1448,23 @@
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
     </row>
     <row r="4" customFormat="1" ht="250" customHeight="1" spans="1:19">
       <c r="A4" s="6" t="s">
@@ -1460,23 +1475,23 @@
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
     </row>
     <row r="5" customFormat="1" ht="179" customHeight="1" spans="1:19">
       <c r="A5" s="4" t="s">
@@ -1487,23 +1502,23 @@
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
     </row>
     <row r="6" customFormat="1" ht="188" customHeight="1" spans="1:19">
       <c r="A6" s="6" t="s">
@@ -1525,12 +1540,12 @@
       <c r="M6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
     </row>
     <row r="7" customFormat="1" ht="409" customHeight="1" spans="1:19">
       <c r="A7" s="8" t="s">
@@ -1541,23 +1556,23 @@
       <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
     </row>
     <row r="8" customFormat="1" ht="409" customHeight="1" spans="1:19">
       <c r="A8" s="6" t="s">
@@ -1568,100 +1583,100 @@
       <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-    </row>
-    <row r="9" customFormat="1" customHeight="1" spans="1:19">
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+    </row>
+    <row r="9" customFormat="1" ht="362" customHeight="1" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
     </row>
     <row r="10" ht="201" customHeight="1" spans="1:19">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
     </row>
     <row r="11" ht="100" customHeight="1" spans="1:19">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="15"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="16"/>
     </row>
     <row r="12" ht="409" customHeight="1" spans="1:19">
       <c r="A12" s="8" t="s">
@@ -1672,41 +1687,41 @@
       <c r="D12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
     </row>
     <row r="13" ht="409" customHeight="1" spans="1:19">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
       <c r="M13" s="7" t="s">
         <v>34</v>
       </c>
@@ -1717,7 +1732,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="4:19">
+    <row r="14" ht="83" customHeight="1" spans="4:19">
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>

--- a/Javascript/ETH_web3_infura_etherscan.io_API.xlsx
+++ b/Javascript/ETH_web3_infura_etherscan.io_API.xlsx
@@ -17,7 +17,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>Web3j:依赖web3j等jar
-https://infura.io/register申请token，可以先不申请，直接访问https://mainnet.infura.io（主网地址），项目中目前直接写的主网地址所以可以直接运行不用申请访问</t>
+https://infura.io/register申请token，可以先不申请，直接访问https://rinkeby.infura.io（主网地址），项目中目前直接写的主网地址所以可以直接运行不用申请访问</t>
   </si>
   <si>
     <t>功能</t>
@@ -29,7 +29,7 @@
     <t>Response Json</t>
   </si>
   <si>
-    <t>1. 创建钱包json文件</t>
+    <t>1. 创建钱包元数据</t>
   </si>
   <si>
     <t xml:space="preserve">/**
@@ -43,7 +43,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 生成的文件内容：     
+    <t xml:space="preserve"> 文件内容：     
 {
     "address":"e4d869165c4251f4b65c891774131072ed1a2af8",
     "id":"f00c3314-8585-4cfe-a426-29e492c3e17b",
@@ -67,13 +67,13 @@
 }</t>
   </si>
   <si>
-    <t>2. 根据生成的钱包文件解析钱包</t>
+    <t>2. 根据元数据Keystore解析钱包</t>
   </si>
   <si>
     <t xml:space="preserve">/**
   * 加载钱包文件
   * 
-  * @param String password 创建该钱包时的钱包密码
+  * @param String password 钱包密码
   * @param  File walleFilePath 钱包文件路径
   */
    Credentials credentials = WalletUtils.loadCredentials(password, walleFilePath);
@@ -91,7 +91,7 @@
     <t>3. 连接Eth客户端</t>
   </si>
   <si>
-    <t xml:space="preserve">  Web3j web3j = Web3j.build(new HttpService("https://mainnet.infura.io/YourToken"));
+    <t xml:space="preserve">  Web3j web3j = Web3j.build(new HttpService("https://rinkeby.infura.io/YourToken"));
 </t>
   </si>
   <si>
@@ -171,6 +171,7 @@
   // 开始发送交易到指定地址
   TransactionReceipt send = Transfer.sendFunds(web3j, credentials, address_to, new BigDecimal(value), unit)
     .send();
+  return send.getTransactionHash();
  </t>
   </si>
   <si>
@@ -183,26 +184,13 @@
   System.out.println("status: " + send.getStatus());</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7. 获取交易信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-/**
-  * 获取交易状态
-  * @param String transactionHash 交易的哈希值
-  */
-方法一：
-EthTransaction  ethTransaction = web3j.ethGetTransactionByHash( String transactionHash).send();
-方法二：
-EthGetTransactionReceipt ethTransaction2 =  web3j.ethGetTransactionReceipt(String transactionHash).send();</t>
-  </si>
-  <si>
-    <t>相同点：
-1两种方法都可以根据getResult()获取交易的基本信息，都可以根据getError()获取错误详情。
-2对于失败的交易都不能查询到记录
-不同点：
-1但是获取的具体内容还是有区别，比如方法一的getResult()中不能获取status，方法二可以。
-2当发送的交易没有被确认时，方法一可以查询到基本信息，并且blocknumber会为null。但是方法二必须要等交易完成之后才能查询到记录。</t>
+    <t xml:space="preserve"> 7. 获取交易状态</t>
+  </si>
+  <si>
+    <t>web3j.ethGetTransactionByHash(transactionHash).send();</t>
+  </si>
+  <si>
+    <t>返回：EthTransaction 对象</t>
   </si>
   <si>
     <t xml:space="preserve">           8获取燃料价格</t>
@@ -217,7 +205,7 @@
   </si>
   <si>
     <t>以上为项目中用到的，在EthController中有可以自定义矿工费用的发送交易的方法，以上代码发送交易是采用默认的矿工费用，下面两个是可以自定义的发送交易的方法
-如0x55a2217015ef6b6b14d1e88a567fee6c31803c9bba0e50ea507f0e124de6705e为自定义的矿工费用成功交易。可进入https://etherscan.io查看</t>
+如0x55a2217015ef6b6b14d1e88a567fee6c31803c9bba0e50ea507f0e124de6705e为自定义的矿工费用交易。可进入https://etherscan.io查看</t>
   </si>
   <si>
     <t>9自定义矿工费用（不使用签名）</t>
@@ -318,9 +306,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -381,10 +369,71 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,38 +446,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,11 +467,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,55 +490,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -561,13 +549,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,133 +681,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,33 +772,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,6 +788,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,24 +824,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,109 +865,109 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,22 +979,22 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,7 +1004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1042,8 +1030,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1051,14 +1042,8 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1387,8 +1372,8 @@
   <sheetPr/>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="44" customHeight="1"/>
@@ -1448,23 +1433,23 @@
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" customFormat="1" ht="250" customHeight="1" spans="1:19">
       <c r="A4" s="6" t="s">
@@ -1475,23 +1460,23 @@
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
     </row>
     <row r="5" customFormat="1" ht="179" customHeight="1" spans="1:19">
       <c r="A5" s="4" t="s">
@@ -1502,23 +1487,23 @@
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" customFormat="1" ht="188" customHeight="1" spans="1:19">
       <c r="A6" s="6" t="s">
@@ -1540,12 +1525,12 @@
       <c r="M6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
     </row>
     <row r="7" customFormat="1" ht="409" customHeight="1" spans="1:19">
       <c r="A7" s="8" t="s">
@@ -1556,23 +1541,23 @@
       <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" customFormat="1" ht="409" customHeight="1" spans="1:19">
       <c r="A8" s="6" t="s">
@@ -1583,100 +1568,100 @@
       <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-    </row>
-    <row r="9" customFormat="1" ht="362" customHeight="1" spans="1:19">
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" customFormat="1" customHeight="1" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" ht="201" customHeight="1" spans="1:19">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
     </row>
     <row r="11" ht="100" customHeight="1" spans="1:19">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="16"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="15"/>
     </row>
     <row r="12" ht="409" customHeight="1" spans="1:19">
       <c r="A12" s="8" t="s">
@@ -1687,41 +1672,41 @@
       <c r="D12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" ht="409" customHeight="1" spans="1:19">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="7" t="s">
         <v>34</v>
       </c>
@@ -1732,7 +1717,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" ht="83" customHeight="1" spans="4:19">
+    <row r="14" customHeight="1" spans="4:19">
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>

--- a/Javascript/ETH_web3_infura_etherscan.io_API.xlsx
+++ b/Javascript/ETH_web3_infura_etherscan.io_API.xlsx
@@ -17,7 +17,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>Web3j:依赖web3j等jar
-https://infura.io/register申请token，可以先不申请，直接访问https://rinkeby.infura.io（主网地址），项目中目前直接写的主网地址所以可以直接运行不用申请访问</t>
+https://infura.io/register申请token，可以先不申请，直接访问https://mainnet.infura.io（主网地址），项目中目前直接写的主网地址所以可以直接运行不用申请访问</t>
   </si>
   <si>
     <t>功能</t>
@@ -91,7 +91,7 @@
     <t>3. 连接Eth客户端</t>
   </si>
   <si>
-    <t xml:space="preserve">  Web3j web3j = Web3j.build(new HttpService("https://rinkeby.infura.io/YourToken"));
+    <t xml:space="preserve">  Web3j web3j = Web3j.build(new HttpService("https://mainnet.infura.io/YourToken"));
 </t>
   </si>
   <si>
@@ -171,7 +171,6 @@
   // 开始发送交易到指定地址
   TransactionReceipt send = Transfer.sendFunds(web3j, credentials, address_to, new BigDecimal(value), unit)
     .send();
-  return send.getTransactionHash();
  </t>
   </si>
   <si>
@@ -187,10 +186,23 @@
     <t xml:space="preserve"> 7. 获取交易状态</t>
   </si>
   <si>
-    <t>web3j.ethGetTransactionByHash(transactionHash).send();</t>
-  </si>
-  <si>
-    <t>返回：EthTransaction 对象</t>
+    <t xml:space="preserve">
+/**
+  * 获取交易状态
+  * @param String transactionHash 交易的哈希值
+  */
+方法一：
+EthTransaction  ethTransaction = web3j.ethGetTransactionByHash( String transactionHash).send();
+方法二：
+EthGetTransactionReceipt ethTransaction2 =  web3j.ethGetTransactionReceipt(String transactionHash).send();</t>
+  </si>
+  <si>
+    <t>相同点：
+1两种方法都可以根据getResult()获取交易的基本信息，都可以根据getError()获取错误详情。
+2对于失败的交易都不能查询到记录
+不同点：
+1但是获取的具体内容还是有区别，比如方法一的getResult()中不能获取status，方法二可以。
+2当发送的交易没有被确认时，方法一可以查询到基本信息，并且blocknumber会为null。但是方法二必须要等交易完成之后才能查询到记录。</t>
   </si>
   <si>
     <t xml:space="preserve">           8获取燃料价格</t>
@@ -205,7 +217,7 @@
   </si>
   <si>
     <t>以上为项目中用到的，在EthController中有可以自定义矿工费用的发送交易的方法，以上代码发送交易是采用默认的矿工费用，下面两个是可以自定义的发送交易的方法
-如0x55a2217015ef6b6b14d1e88a567fee6c31803c9bba0e50ea507f0e124de6705e为自定义的矿工费用交易。可进入https://etherscan.io查看</t>
+如0x55a2217015ef6b6b14d1e88a567fee6c31803c9bba0e50ea507f0e124de6705e为自定义的矿工费用成功交易。可进入https://etherscan.io查看</t>
   </si>
   <si>
     <t>9自定义矿工费用（不使用签名）</t>
@@ -307,8 +319,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -368,6 +380,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -377,39 +426,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,6 +449,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -437,6 +464,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,40 +479,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,11 +495,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -543,157 +555,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,22 +784,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,21 +828,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -859,142 +871,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,20 +1042,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1372,8 +1384,8 @@
   <sheetPr/>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:S11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="44" customHeight="1"/>
@@ -1433,23 +1445,23 @@
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
     </row>
     <row r="4" customFormat="1" ht="250" customHeight="1" spans="1:19">
       <c r="A4" s="6" t="s">
@@ -1487,23 +1499,23 @@
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
     </row>
     <row r="6" customFormat="1" ht="188" customHeight="1" spans="1:19">
       <c r="A6" s="6" t="s">
@@ -1541,23 +1553,23 @@
       <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
     </row>
     <row r="8" customFormat="1" ht="409" customHeight="1" spans="1:19">
       <c r="A8" s="6" t="s">
@@ -1586,39 +1598,39 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" customFormat="1" customHeight="1" spans="1:19">
+    <row r="9" customFormat="1" ht="362" customHeight="1" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
     </row>
     <row r="10" ht="201" customHeight="1" spans="1:19">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1641,26 +1653,26 @@
       <c r="S10" s="14"/>
     </row>
     <row r="11" ht="100" customHeight="1" spans="1:19">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
       <c r="S11" s="15"/>
     </row>
     <row r="12" ht="409" customHeight="1" spans="1:19">
@@ -1672,30 +1684,30 @@
       <c r="D12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
     </row>
     <row r="13" ht="409" customHeight="1" spans="1:19">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
@@ -1717,140 +1729,140 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" customHeight="1" spans="4:19">
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+    <row r="14" ht="83" customHeight="1" spans="4:19">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
     </row>
     <row r="15" customHeight="1" spans="4:19">
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" customHeight="1" spans="4:19">
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
     </row>
     <row r="17" customHeight="1" spans="4:19">
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" customHeight="1" spans="4:19">
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
     </row>
     <row r="19" customHeight="1" spans="4:19">
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
     </row>
     <row r="20" customHeight="1" spans="13:19">
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
     </row>
     <row r="21" customHeight="1" spans="13:19">
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
     </row>
     <row r="22" customHeight="1" spans="13:19">
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="35">

--- a/Javascript/ETH_web3_infura_etherscan.io_API.xlsx
+++ b/Javascript/ETH_web3_infura_etherscan.io_API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11700" tabRatio="500"/>
+    <workbookView windowWidth="31760" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <t>Response Json</t>
   </si>
   <si>
-    <t>1. 创建钱包元数据</t>
+    <t>1. 创建钱包json文件</t>
   </si>
   <si>
     <t xml:space="preserve">/**
@@ -43,7 +43,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 文件内容：     
+    <t xml:space="preserve"> 生成的钱包json文件内容：     
 {
     "address":"e4d869165c4251f4b65c891774131072ed1a2af8",
     "id":"f00c3314-8585-4cfe-a426-29e492c3e17b",
@@ -67,7 +67,7 @@
 }</t>
   </si>
   <si>
-    <t>2. 根据元数据Keystore解析钱包</t>
+    <t>2. 根据钱包文件解析钱包</t>
   </si>
   <si>
     <t xml:space="preserve">/**
@@ -174,13 +174,33 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">
-返回TransactionReceipt对象   可以获取交易的哈希值，发送和接受者，交易状态等
+    <r>
+      <t xml:space="preserve">
+返回TransactionReceipt对象   可以获取交易的哈希值，发送和接受者，交易状态等,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="华文楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但是必须等成功之后才会取得以下信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.0499893185216834"/>
+        <rFont val="华文楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
   System.out.println("trans hash=" + send.getTransactionHash());
   System.out.println("from :" + send.getFrom());
   System.out.println("to:" + send.getTo());
   System.out.println("gas used=" + send.getGasUsed());
   System.out.println("status: " + send.getStatus());</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> 7. 获取交易状态</t>
@@ -194,15 +214,44 @@
 方法一：
 EthTransaction  ethTransaction = web3j.ethGetTransactionByHash( String transactionHash).send();
 方法二：
-EthGetTransactionReceipt ethTransaction2 =  web3j.ethGetTransactionReceipt(String transactionHash).send();</t>
-  </si>
-  <si>
-    <t>相同点：
-1两种方法都可以根据getResult()获取交易的基本信息，都可以根据getError()获取错误详情。
+EthGetTransactionReceipt ethTransaction2 =  web3j.ethGetTransactionReceipt(String transactionHash).send();
+方式三：采用API的方式
+通过[Etherscan.io](https://etherscan.io/apis#accounts)根据交易的哈希值获取交易详情
+https://api.etherscan.io/api?module=transaction&amp;action=gettxreceiptstatus&amp;txhash=0x6a7fe7d5c3160a9391319622ff3683575c5309f54935ff772f6d6f31335d8f6e</t>
+  </si>
+  <si>
+    <r>
+      <t>相同点：
+1两种方法都可以根据getResult()获取交易的基本信息，都可以根据getError()获取错误码值和错误描述。
 2对于失败的交易都不能查询到记录
 不同点：
-1但是获取的具体内容还是有区别，比如方法一的getResult()中不能获取status，方法二可以。
-2当发送的交易没有被确认时，方法一可以查询到基本信息，并且blocknumber会为null。但是方法二必须要等交易完成之后才能查询到记录。</t>
+1获取的具体内容有区别，比如方法一的getResult()中不能获取status，方法二可以。
+2当发送的交易没有被确认时，方法一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="华文楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.0499893185216834"/>
+        <rFont val="华文楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">查询到基本信息，并且blocknumber会为null。但是方法二必须要等交易完成之后才能查询到记录。
+由于方法一和方法二不能查询到交易失败的记录，所以可以用方法三查询交易信息，如下面是方法三返回的json
+ 错误交易或没有被确认的交易或者错误的哈希值:
+ {"status":"1","message":"OK","result":{"status":""}}
+ 成功的交易:
+ {"status":"1","message":"OK","result":{"status":"1"}}
+</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">           8获取燃料价格</t>
@@ -212,7 +261,7 @@
   </si>
   <si>
     <t>Gas Price是时刻变化的，目前项目中，是系统根据Gas Price和Gas Limit计算。 
-Gas Limit一般为21000 (可自定义Gas Price和Gas Limit) 
+Gas Limit一般为21000 (可自定义Gas Price和Gas Limit，定义的Gas Limit大于21000时也会按21000算) 
 手续费 = Gas Price * Gas Limit</t>
   </si>
   <si>
@@ -247,7 +296,7 @@
  }</t>
   </si>
   <si>
-    <t xml:space="preserve">可以用TransactionReceipt 获取以下信息
+    <t xml:space="preserve">可以用TransactionReceipt 获取以下信息,这种方法与上面默认的矿工费交易类似，都要等成功之后才能获取以下交易信息。
   System.out.println("Transaction complete:");
   System.out.println("trans hash=" + send.getTransactionHash());
   System.out.println("from :" + send.getFrom());
@@ -302,14 +351,35 @@
 </t>
   </si>
   <si>
-    <t>使用签名时发送交易不需要发送方的地址。
-可以使用EthSendTransaction 获取以下信息：如交易的哈希值，错误的编码code以及错误信息
+    <r>
+      <t xml:space="preserve">使用签名时发送交易不需要发送方的地址。交易前将Credentials
+传进去。可以使用EthSendTransaction 获取以下信息：如交易的哈希值，错误的编码code以及错误信息。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="华文楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这种交易方式当交易还没有成功的时候就可以先获取到交易的哈希值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.0499893185216834"/>
+        <rFont val="华文楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 System.out.println("result=" + ethSendTransaction.getResult());
-System.out.println("TxHash=" + transactionHash);
+System.out.println("TxHash=" + ethSendTransaction.getTransactionHash());
 if (ethSendTransaction.getError() != null) {
 System.out.println("errorMessage=" + ethSendTransaction.getError().getMessage());
 System.out.println("errorCode=" + ethSendTransaction.getError().getCode());
   }</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -319,8 +389,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -367,21 +437,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +490,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -404,7 +507,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,14 +525,6 @@
       <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,39 +536,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,24 +551,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,6 +572,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -555,19 +625,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,13 +727,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,115 +757,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,8 +844,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,30 +855,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,6 +874,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -843,176 +924,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1384,8 +1454,8 @@
   <sheetPr/>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:L9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="44" customHeight="1"/>
@@ -1393,6 +1463,7 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="16.3888888888889" customWidth="1"/>
     <col min="10" max="10" width="19.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="12.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="226" customHeight="1" spans="1:10">

--- a/Javascript/ETH_web3_infura_etherscan.io_API.xlsx
+++ b/Javascript/ETH_web3_infura_etherscan.io_API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31760" windowHeight="13820" tabRatio="500"/>
+    <workbookView windowWidth="30380" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>Web3j:依赖web3j等jar
 https://infura.io/register申请token，可以先不申请，直接访问https://mainnet.infura.io（主网地址），项目中目前直接写的主网地址所以可以直接运行不用申请访问</t>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.0499893185216834"/>
+        <rFont val="华文楷体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 返回TransactionReceipt对象   可以获取交易的哈希值，发送和接受者，交易状态等,</t>
     </r>
@@ -221,6 +227,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.0499893185216834"/>
+        <rFont val="华文楷体"/>
+        <charset val="134"/>
+      </rPr>
       <t>相同点：
 1两种方法都可以根据getResult()获取交易的基本信息，都可以根据getError()获取错误码值和错误描述。
 2对于失败的交易都不能查询到记录
@@ -265,7 +277,7 @@
 手续费 = Gas Price * Gas Limit</t>
   </si>
   <si>
-    <t>以上为项目中用到的，在EthController中有可以自定义矿工费用的发送交易的方法，以上代码发送交易是采用默认的矿工费用，下面两个是可以自定义的发送交易的方法
+    <t>以上为项目中用到的，在EthController中有可以自定义矿工费用的发送交易的方法，以上代码发送交易是采用默认的矿工费用，下面两个是可以自定义的发送交易的方法（这两个方法都需要钱包文件地址）
 如0x55a2217015ef6b6b14d1e88a567fee6c31803c9bba0e50ea507f0e124de6705e为自定义的矿工费用成功交易。可进入https://etherscan.io查看</t>
   </si>
   <si>
@@ -352,6 +364,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.0499893185216834"/>
+        <rFont val="华文楷体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">使用签名时发送交易不需要发送方的地址。交易前将Credentials
 传进去。可以使用EthSendTransaction 获取以下信息：如交易的哈希值，错误的编码code以及错误信息。
 </t>
@@ -381,6 +399,150 @@
   }</t>
     </r>
   </si>
+  <si>
+    <t>以上是需要读取钱包文件的方式，下面是实现的另一种方式，利用私钥进行交易</t>
+  </si>
+  <si>
+    <t>11创建钱包，不生成file文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/**
+  * 创建钱包（不生成file文件，可以生成json）
+  *
+  * @param String password 密码
+  *            
+  */
+ public static void createWallet(String password) {
+  WalletFile walletFile = null;
+  ECKeyPair ecKeyPair = null;
+  try {
+   ecKeyPair = Keys.createEcKeyPair();
+   walletFile = Wallet.createStandard(password, ecKeyPair);
+   System.out.println("address = " +"0x"+ walletFile.getAddress());
+   ObjectMapper objectMapper = ObjectMapperFactory.getObjectMapper();
+   String jsonStr = objectMapper.writeValueAsString(walletFile);
+   System.out.println("keystore json file " + jsonStr);
+  } catch (Exception exception) {
+   exception.printStackTrace();
+  }
+ }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+可以通过walletFile.getAddress()获取生成的钱包地址。
+通过objectMapper.writeValueAsString(walletFile)得到string类型的json文件，生成的文件与之前一致。</t>
+  </si>
+  <si>
+    <t>12通过钱包的json文件得到私钥</t>
+  </si>
+  <si>
+    <t>/**
+  * 解密keystore 得到私钥及公钥
+  * @param keystore 钱包生成的json文件字符串
+  * @param password 创建钱包时的密码
+  */
+public static String decryptWallet(String keystore, String password) {
+  String privateKey = null;
+  String publicKey = null;
+  ObjectMapper objectMapper = ObjectMapperFactory.getObjectMapper();
+  try {
+   WalletFile walletFile = objectMapper.readValue(keystore, WalletFile.class);
+   ECKeyPair ecKeyPair = null;
+   ecKeyPair = Wallet.decrypt(password, walletFile);
+   privateKey = ecKeyPair.getPrivateKey().toString(16);
+   System.out.println("privateKey = " + privateKey);
+   publicKey = ecKeyPair.getPublicKey().toString(16);
+   System.out.println("publicKey = " + publicKey);
+  return privateKey;
+ }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 通过ECKeyPair对象获取私钥和公钥，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="华文楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意下面用私钥进行签名时，私钥一定要转成这种格式，不能用BigInteger类型，不然会报错</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.0499893185216834"/>
+        <rFont val="华文楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+privateKey = ecKeyPair.getPrivateKey().toString(16);
+publicKey = ecKeyPair.getPublicKey().toString(16);</t>
+    </r>
+  </si>
+  <si>
+    <t>13利用私钥进行签名</t>
+  </si>
+  <si>
+    <t>public static String signTransaction(BigInteger nonce, BigInteger GAS_PRICE, BigInteger GAS_LIMIT, String to,
+   BigInteger value, String data, byte chainId, String privateKey) throws IOException {
+  byte[] signedMessage;
+  RawTransaction rawTransaction = RawTransaction.createTransaction(nonce, GAS_PRICE, GAS_LIMIT, to, value, data);
+  if (privateKey.startsWith("0x")) {
+   privateKey = privateKey.substring(2);
+  }
+  ECKeyPair ecKeyPair = ECKeyPair.create(new BigInteger(privateKey, 16));
+  Credentials credentials = Credentials.create(ecKeyPair);
+  if (chainId &gt; ChainId.NONE) {
+   signedMessage = TransactionEncoder.signMessage(rawTransaction, chainId, credentials);
+  } else {
+   signedMessage = TransactionEncoder.signMessage(rawTransaction, credentials);
+  }
+  String hexValue = Numeric.toHexString(signedMessage);
+  return hexValue;
+ }</t>
+  </si>
+  <si>
+    <t>用私钥进行签名交易时，会用到该方法</t>
+  </si>
+  <si>
+    <t>14用私钥进行交易</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/***
+  * 利用私钥发送交易
+  * @param web3j Web3j对象
+  * @param GAS_PRICE 燃料价格
+  * @param GAS_LIMIT 燃料最大限度
+  * @param fromAddress 发送交易者钱包地址
+  * @param toAddress 接受交易者钱包地址
+  * @param value 交易的eth金额
+  * @param privateKey 发送者私钥
+  */
+ public static void transToByPrivateKey(Web3j web3j, BigInteger GAS_PRICE, BigInteger GAS_LIMIT,
+   String fromAddress, String toAddress, String value,String privateKey) {
+  BigInteger nonce = null;
+  EthGetTransactionCount ethGetTransactionCount = null;
+   ethGetTransactionCount = web3j.ethGetTransactionCount(fromAddress, DefaultBlockParameterName.PENDING).send();
+  if (ethGetTransactionCount == null)
+   return;
+  nonce = ethGetTransactionCount.getTransactionCount();
+  BigInteger valueEther = Convert.toWei(new BigDecimal(value), Convert.Unit.ETHER).toBigInteger();
+  String data = "";
+  byte chainId = ChainId.MAINNET;//主网络
+  String signedData;
+   signedData = signTransaction(nonce, GAS_PRICE, GAS_LIMIT, toAddress, valueEther, data, chainId, privateKey);
+   if (signedData != null) {
+    EthSendTransaction ethSendTransaction = web3j.ethSendRawTransaction(signedData).send();
+    System.out.println("txHash=" + ethSendTransaction.getTransactionHash());
+   }
+</t>
+  </si>
+  <si>
+    <t>交易时会用到上面的方法13，进行签名。这里的ChainId用的是主网络，这里当交易还没有成功时就能先获取到交易的哈希值，类似于上面的方法10</t>
+  </si>
 </sst>
 </file>
 
@@ -388,9 +550,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -437,7 +599,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,8 +635,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,35 +714,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,73 +741,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -625,157 +787,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,6 +1006,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -854,56 +1025,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -938,127 +1059,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,22 +1229,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1454,8 +1616,8 @@
   <sheetPr/>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:S13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18:S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="44" customHeight="1"/>
@@ -1800,95 +1962,136 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" ht="83" customHeight="1" spans="4:19">
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+    <row r="14" ht="83" customHeight="1" spans="1:19">
+      <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="15"/>
     </row>
-    <row r="15" customHeight="1" spans="4:19">
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
+    <row r="15" ht="409" customHeight="1" spans="1:19">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
     </row>
-    <row r="16" customHeight="1" spans="4:19">
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
+    <row r="16" ht="409" customHeight="1" spans="1:19">
+      <c r="A16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
     </row>
-    <row r="17" customHeight="1" spans="4:19">
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
+    <row r="17" ht="409" customHeight="1" spans="1:19">
+      <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
     </row>
-    <row r="18" customHeight="1" spans="4:19">
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
+    <row r="18" ht="409" customHeight="1" spans="1:19">
+      <c r="A18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
     </row>
     <row r="19" customHeight="1" spans="4:19">
       <c r="D19" s="12"/>
@@ -1936,7 +2139,7 @@
       <c r="S22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="48">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:L2"/>
@@ -1972,6 +2175,19 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:L13"/>
     <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:S18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
